--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02842828571459333</v>
+        <v>0.02853676302123807</v>
       </c>
       <c r="H2" t="n">
-        <v>11.93204534429059</v>
+        <v>12.35915821799977</v>
       </c>
       <c r="I2" t="n">
-        <v>11.48417447917335</v>
+        <v>-23.53009083170645</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02891252986312211</v>
+        <v>0.02812792456308364</v>
       </c>
       <c r="H3" t="n">
-        <v>1.414817070999297</v>
+        <v>-1.337297785536664</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03827483518494287</v>
+        <v>0.03708471032781688</v>
       </c>
       <c r="H4" t="n">
-        <v>3.764027565784025</v>
+        <v>0.5375695579353821</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03163152659142575</v>
+        <v>0.03982502198704561</v>
       </c>
       <c r="H5" t="n">
-        <v>-14.97250404888921</v>
+        <v>7.052117322542069</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009720309275639719</v>
+        <v>0.00969048234834601</v>
       </c>
       <c r="H6" t="n">
-        <v>48.17998419599247</v>
+        <v>47.72529150158683</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01147480981151337</v>
+        <v>0.008734413735983455</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.02914912170867</v>
+        <v>-24.66521244596484</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04637027397025947</v>
+        <v>-0.04924614512800576</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.679285135587858</v>
+        <v>1.953580747656754</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04475457494094023</v>
+        <v>-0.05007518299225271</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.606782431197135</v>
+        <v>-6.733955853256638</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0355699155214225</v>
+        <v>-0.03588498480145327</v>
       </c>
       <c r="H10" t="n">
-        <v>-13.95812324747398</v>
+        <v>13.19598615033674</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03964991741642756</v>
+        <v>-0.03819400605170438</v>
       </c>
       <c r="H11" t="n">
-        <v>-5.242632199478142</v>
+        <v>8.722042439431778</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0549780824050341</v>
+        <v>-0.05373946328455664</v>
       </c>
       <c r="H12" t="n">
-        <v>11.89570049160083</v>
+        <v>-9.37476581972466</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05133656268549804</v>
+        <v>-0.05501578658550049</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.075738304658364</v>
+        <v>-3.870695999957239</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07489932242526362</v>
+        <v>-0.0620616194827798</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8654617897965545</v>
+        <v>16.4228232531813</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06837782293931564</v>
+        <v>-0.08672585852312779</v>
       </c>
       <c r="H15" t="n">
-        <v>-23.98153470057381</v>
+        <v>3.583261599973391</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.289051164219617</v>
+        <v>-0.3060570176792599</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.308363089118932</v>
+        <v>-4.497998284757256</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2891463209407269</v>
+        <v>-0.3050867735062662</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.840137096033414</v>
+        <v>-2.516224281334645</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1437856213778039</v>
+        <v>-0.1558201524518054</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.724718356768878</v>
+        <v>-6.500700286685864</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1537540176586353</v>
+        <v>-0.1488706409207582</v>
       </c>
       <c r="H19" t="n">
-        <v>1.449177103003656</v>
+        <v>1.772947164613879</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.170467969511894</v>
+        <v>0.16912877422723</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.191724213117737</v>
+        <v>-3.952249412200368</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1823628373580032</v>
+        <v>0.1717683600326904</v>
       </c>
       <c r="H21" t="n">
-        <v>1.476578171061705</v>
+        <v>-4.41876389566155</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1344882847955552</v>
+        <v>0.1293468024366042</v>
       </c>
       <c r="H22" t="n">
-        <v>2.608038979216409</v>
+        <v>-1.314662712608808</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1366181158399962</v>
+        <v>0.1367462771607181</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.06035131488828368</v>
+        <v>0.03340197170343302</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08910559961540254</v>
+        <v>0.0820287441109683</v>
       </c>
       <c r="H24" t="n">
-        <v>1.043390286831671</v>
+        <v>-6.981576447295517</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08580270530500562</v>
+        <v>0.09316187604240964</v>
       </c>
       <c r="H25" t="n">
-        <v>-7.566938502999182</v>
+        <v>0.3609080482180095</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0555265151439369</v>
+        <v>0.05725096656052119</v>
       </c>
       <c r="H26" t="n">
-        <v>-12.39552493499474</v>
+        <v>-9.674848862790936</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05666706762443586</v>
+        <v>0.06312797827395986</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.8472968944421351</v>
+        <v>10.45762468133999</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.112868268661368</v>
+        <v>-0.1112490872165196</v>
       </c>
       <c r="H28" t="n">
-        <v>2.714354178525421</v>
+        <v>-1.240838385486779</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1169740284182869</v>
+        <v>-0.1096474995712799</v>
       </c>
       <c r="H29" t="n">
-        <v>3.976387266098937</v>
+        <v>2.536049819410152</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1170741952389426</v>
+        <v>0.1173105798048131</v>
       </c>
       <c r="H30" t="n">
-        <v>2.603157182974637</v>
+        <v>2.810323268704633</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1198575768296987</v>
+        <v>0.1191630143959317</v>
       </c>
       <c r="H31" t="n">
-        <v>2.170595203919238</v>
+        <v>1.578527024824583</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1006570667759138</v>
+        <v>0.08902750154347319</v>
       </c>
       <c r="H32" t="n">
-        <v>3.103757718610144</v>
+        <v>-8.808489622827873</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1029575731993264</v>
+        <v>0.09851384097069447</v>
       </c>
       <c r="H33" t="n">
-        <v>5.990560222696813</v>
+        <v>1.415921818191061</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0602072986428974</v>
+        <v>0.05722595875980189</v>
       </c>
       <c r="H34" t="n">
-        <v>4.385763637960809</v>
+        <v>-0.7832017096972029</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05961861158154276</v>
+        <v>0.06144630721915744</v>
       </c>
       <c r="H35" t="n">
-        <v>5.810576632248202</v>
+        <v>9.054354442466867</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0186822800050349</v>
+        <v>0.01916626721458699</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.700949860782014</v>
+        <v>-1.206205721049797</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01395802389928276</v>
+        <v>0.01468766603003</v>
       </c>
       <c r="H37" t="n">
-        <v>-17.41226008886325</v>
+        <v>-13.09506626850755</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2045592949963238</v>
+        <v>-0.2105821227371983</v>
       </c>
       <c r="H38" t="n">
-        <v>4.509346831207762</v>
+        <v>-7.58640961286716</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2027658475841772</v>
+        <v>-0.2128838243787015</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.2054956500216669</v>
+        <v>-4.774230922595334</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1554895969686529</v>
+        <v>0.1529314841286284</v>
       </c>
       <c r="H40" t="n">
-        <v>5.090783925924841</v>
+        <v>3.36183170680406</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1559211346501723</v>
+        <v>0.1609231887956945</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.310697262044565</v>
+        <v>0.8232408203706418</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1096724837881131</v>
+        <v>0.1080334965329325</v>
       </c>
       <c r="H42" t="n">
-        <v>1.653781173423446</v>
+        <v>0.1346284559009004</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1153961903600021</v>
+        <v>0.1185542325328997</v>
       </c>
       <c r="H43" t="n">
-        <v>3.094989862781304</v>
+        <v>5.916385653971696</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0504532384803497</v>
+        <v>-0.05272710504480472</v>
       </c>
       <c r="H44" t="n">
-        <v>22.41867060097556</v>
+        <v>-27.93593233340144</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04520249065335873</v>
+        <v>-0.04866082237568027</v>
       </c>
       <c r="H45" t="n">
-        <v>8.58195554437518</v>
+        <v>-16.88929471757442</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04125680144067536</v>
+        <v>0.04397947047917945</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.11266971253723</v>
+        <v>2.215243655489902</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04635175268741667</v>
+        <v>0.04870036956790488</v>
       </c>
       <c r="H47" t="n">
-        <v>-6.188249169439391</v>
+        <v>-1.434861243104895</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0221041100197659</v>
+        <v>0.01500973390433957</v>
       </c>
       <c r="H48" t="n">
-        <v>78.21152847161076</v>
+        <v>21.01403850471976</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01665015206325607</v>
+        <v>0.01910204140943557</v>
       </c>
       <c r="H49" t="n">
-        <v>-11.96356064330093</v>
+        <v>1.000621720572077</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08235073066696066</v>
+        <v>0.08621533174958189</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.152776594199728</v>
+        <v>3.485981113161079</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.084611100753538</v>
+        <v>0.08854342890720387</v>
       </c>
       <c r="H51" t="n">
-        <v>-3.408221045426446</v>
+        <v>1.080912985605026</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03740538506202956</v>
+        <v>0.03174297888850176</v>
       </c>
       <c r="H52" t="n">
-        <v>4.124354652672594</v>
+        <v>-11.63793164974519</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03537686150713599</v>
+        <v>0.03575262266832522</v>
       </c>
       <c r="H53" t="n">
-        <v>14.57051319919475</v>
+        <v>15.78744277529893</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06390947668177982</v>
+        <v>0.05937205637450688</v>
       </c>
       <c r="H54" t="n">
-        <v>7.001848165307865</v>
+        <v>-0.5950276657755672</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05917012090255525</v>
+        <v>0.06377745173623665</v>
       </c>
       <c r="H55" t="n">
-        <v>-8.641802136455334</v>
+        <v>-1.52811983353311</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07499135731936282</v>
+        <v>0.07442108173950462</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.45899319705931</v>
+        <v>-2.208353280715882</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07576414377130862</v>
+        <v>0.07857785406725688</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.8285817490728993</v>
+        <v>2.854422198529232</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04703683431437317</v>
+        <v>0.04620992166890883</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06805285046220449</v>
+        <v>-1.691154364802191</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04602089969796346</v>
+        <v>0.04665960568437975</v>
       </c>
       <c r="H59" t="n">
-        <v>4.058391852350848</v>
+        <v>5.502577390859328</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04406007969503711</v>
+        <v>0.04019200454294105</v>
       </c>
       <c r="H60" t="n">
-        <v>8.191517138943007</v>
+        <v>-1.306716228071521</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04054812590026268</v>
+        <v>0.04293485517894897</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.2910439478723247</v>
+        <v>5.577988947562076</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02844348456006481</v>
+        <v>-0.02901386102590246</v>
       </c>
       <c r="H62" t="n">
-        <v>6.005797622186531</v>
+        <v>-8.131529161104076</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.02691126094853882</v>
+        <v>-0.02557978992904359</v>
       </c>
       <c r="H63" t="n">
-        <v>-14.75714301405044</v>
+        <v>18.97464861190429</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08503555529065604</v>
+        <v>0.08325920572578675</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.608101910718548</v>
+        <v>-4.642569201504841</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08341125854102983</v>
+        <v>0.08082963972683947</v>
       </c>
       <c r="H65" t="n">
-        <v>-3.280357665209033</v>
+        <v>-6.273877397685379</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02210875735414847</v>
+        <v>0.01917243809157913</v>
       </c>
       <c r="H66" t="n">
-        <v>3.341250117595709</v>
+        <v>-10.38375931995889</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02374090676060317</v>
+        <v>0.02149636699256895</v>
       </c>
       <c r="H67" t="n">
-        <v>13.12518825578795</v>
+        <v>2.429978238459081</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00210925864668783</v>
+        <v>-0.004527383480364675</v>
       </c>
       <c r="H68" t="n">
-        <v>904.8583152342344</v>
+        <v>-2256.861579608762</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0008203279089698033</v>
+        <v>-0.004605941989009079</v>
       </c>
       <c r="H69" t="n">
-        <v>-65.87363593290603</v>
+        <v>-291.6112465151113</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07610144374269645</v>
+        <v>-0.07787254554432958</v>
       </c>
       <c r="H70" t="n">
-        <v>11.89790990797876</v>
+        <v>-14.50209952765366</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06669837969675813</v>
+        <v>-0.07359064186539085</v>
       </c>
       <c r="H71" t="n">
-        <v>-10.99038813822788</v>
+        <v>1.792599777120312</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04493906088021717</v>
+        <v>0.04691215849978922</v>
       </c>
       <c r="H72" t="n">
-        <v>-4.496937294172277</v>
+        <v>-0.3037729957687649</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04677393152283311</v>
+        <v>0.05246410303920655</v>
       </c>
       <c r="H73" t="n">
-        <v>-8.924552908592601</v>
+        <v>2.155014235074212</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04117639380669685</v>
+        <v>0.04923412446232314</v>
       </c>
       <c r="H74" t="n">
-        <v>-4.619795816600386</v>
+        <v>14.04497601350289</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04716018233779554</v>
+        <v>0.04893073856354928</v>
       </c>
       <c r="H75" t="n">
-        <v>3.752975952360978</v>
+        <v>7.64822122934345</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.026552474789937</v>
+        <v>0.02632569623783655</v>
       </c>
       <c r="H76" t="n">
-        <v>-14.30706554726907</v>
+        <v>-15.03894910065423</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02670604186392226</v>
+        <v>0.02836224989346532</v>
       </c>
       <c r="H77" t="n">
-        <v>-9.109841933048124</v>
+        <v>-3.473177002919264</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03641079183760035</v>
+        <v>0.03585983084301532</v>
       </c>
       <c r="H78" t="n">
-        <v>5.631259627262134</v>
+        <v>4.032868026137831</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04203146589168356</v>
+        <v>0.03348129581362447</v>
       </c>
       <c r="H79" t="n">
-        <v>30.92126766964764</v>
+        <v>4.288860693994836</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03894958610654749</v>
+        <v>0.03902926236664771</v>
       </c>
       <c r="H80" t="n">
-        <v>32.18282213090781</v>
+        <v>32.45321866061863</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04439531066498532</v>
+        <v>0.03514700445176665</v>
       </c>
       <c r="H81" t="n">
-        <v>27.44005209178397</v>
+        <v>0.8920989877430801</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04918018536311566</v>
+        <v>0.04794841821696028</v>
       </c>
       <c r="H82" t="n">
-        <v>0.05939363398053661</v>
+        <v>-2.446694393800685</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05060738369807798</v>
+        <v>0.05266564453218797</v>
       </c>
       <c r="H83" t="n">
-        <v>-1.896551088025344</v>
+        <v>2.093429658485691</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03525772102094792</v>
+        <v>0.02796474419678526</v>
       </c>
       <c r="H84" t="n">
-        <v>-4.055615830011354</v>
+        <v>-23.90148646199453</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03486335005143643</v>
+        <v>0.03296770602654955</v>
       </c>
       <c r="H85" t="n">
-        <v>6.966462760139926</v>
+        <v>1.150316701445535</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0272137029740338</v>
+        <v>0.03243032173638653</v>
       </c>
       <c r="H86" t="n">
-        <v>1.378185698373876</v>
+        <v>20.81145966744839</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03162853644753676</v>
+        <v>0.025205278932094</v>
       </c>
       <c r="H87" t="n">
-        <v>-5.938804165046157</v>
+        <v>-25.04115131476558</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05618672165224185</v>
+        <v>0.05076508379721534</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9165028982413859</v>
+        <v>-8.821255707722198</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05573997395660154</v>
+        <v>0.0591315510196416</v>
       </c>
       <c r="H89" t="n">
-        <v>3.623224924466285</v>
+        <v>9.92832569695126</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.01921318580200891</v>
+        <v>-0.02522631634254658</v>
       </c>
       <c r="H90" t="n">
-        <v>-19.74076151227525</v>
+        <v>-5.377887892571125</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02037500613717248</v>
+        <v>-0.02784766107690911</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.661454408811991</v>
+        <v>-34.40479330327263</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04238251043518421</v>
+        <v>0.04334469994810766</v>
       </c>
       <c r="H92" t="n">
-        <v>6.925850052612938</v>
+        <v>9.353335600888535</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04201393391818267</v>
+        <v>0.04364334433669955</v>
       </c>
       <c r="H93" t="n">
-        <v>-13.01538192805225</v>
+        <v>-9.641890571276344</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0502114028171084</v>
+        <v>0.05487426504844421</v>
       </c>
       <c r="H94" t="n">
-        <v>12.82610041509967</v>
+        <v>23.30365198343021</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04909305375051652</v>
+        <v>0.0502796481463087</v>
       </c>
       <c r="H95" t="n">
-        <v>9.652549108443136</v>
+        <v>12.30288536411018</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1421283413296946</v>
+        <v>-0.1448775064455182</v>
       </c>
       <c r="H96" t="n">
-        <v>-3.289839863669191</v>
+        <v>1.419191152053174</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1419366760707223</v>
+        <v>-0.1506745278281608</v>
       </c>
       <c r="H97" t="n">
-        <v>-5.888487838106506</v>
+        <v>0.09483066151280931</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1437216195011876</v>
+        <v>0.1409514878825632</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9918404693285756</v>
+        <v>-0.9547051615801059</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1483455936246754</v>
+        <v>0.1490811909401392</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8735841898971576</v>
+        <v>1.373783325700523</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02907531092970919</v>
+        <v>0.02792338333557449</v>
       </c>
       <c r="H100" t="n">
-        <v>25.04536774244905</v>
+        <v>20.09122606638998</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03542639305338258</v>
+        <v>0.02934828995758951</v>
       </c>
       <c r="H101" t="n">
-        <v>29.68775814083715</v>
+        <v>7.437241046011979</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01548619436217783</v>
+        <v>-0.01957133468993601</v>
       </c>
       <c r="H102" t="n">
-        <v>100.0504519713105</v>
+        <v>-152.822240173207</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.01396104607924967</v>
+        <v>-0.009989180556762969</v>
       </c>
       <c r="H103" t="n">
-        <v>82.24394598205778</v>
+        <v>-30.39622328139846</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.08215836653750667</v>
+        <v>0.07875347882695695</v>
       </c>
       <c r="H104" t="n">
-        <v>12.87263276498603</v>
+        <v>8.19485427016353</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07972145227165003</v>
+        <v>0.07890037433634209</v>
       </c>
       <c r="H105" t="n">
-        <v>6.595411946364775</v>
+        <v>5.497550100396554</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3717844533723958</v>
+        <v>-0.3815770493574534</v>
       </c>
       <c r="H106" t="n">
-        <v>7.263945349766813</v>
+        <v>-10.08921808789674</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3486460625043664</v>
+        <v>-0.3469386373313227</v>
       </c>
       <c r="H107" t="n">
-        <v>-7.337379186348618</v>
+        <v>7.791176054843161</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2265771465322729</v>
+        <v>0.2273926608445929</v>
       </c>
       <c r="H108" t="n">
-        <v>0.7368690711121175</v>
+        <v>1.099449144888868</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2335841709183062</v>
+        <v>0.2288979055214443</v>
       </c>
       <c r="H109" t="n">
-        <v>4.913167203265292</v>
+        <v>2.808354436171588</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.05396584855101567</v>
+        <v>0.06122284070970196</v>
       </c>
       <c r="H110" t="n">
-        <v>-7.951469931977044</v>
+        <v>4.42664472493906</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06850519188078315</v>
+        <v>0.06468210136191137</v>
       </c>
       <c r="H111" t="n">
-        <v>19.25943801223348</v>
+        <v>12.60388951681432</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1316723330751562</v>
+        <v>0.1376753604482669</v>
       </c>
       <c r="H112" t="n">
-        <v>2.622957517021931</v>
+        <v>7.301604949604676</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1446906939869691</v>
+        <v>0.1442758912069214</v>
       </c>
       <c r="H113" t="n">
-        <v>10.50462645696255</v>
+        <v>10.1878291219065</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02853676302123807</v>
+        <v>0.02574124320380406</v>
       </c>
       <c r="H2" t="n">
-        <v>12.35915821799977</v>
+        <v>1.352224697373912</v>
       </c>
       <c r="I2" t="n">
-        <v>-23.53009083170645</v>
+        <v>18.08814183542424</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02812792456308364</v>
+        <v>0.03000914245324245</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.337297785536664</v>
+        <v>5.261341942787171</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03708471032781688</v>
+        <v>0.03861306489451626</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5375695579353821</v>
+        <v>4.680976697979049</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03982502198704561</v>
+        <v>0.04030212564272821</v>
       </c>
       <c r="H5" t="n">
-        <v>7.052117322542069</v>
+        <v>8.334601398502196</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00969048234834601</v>
+        <v>0.008092532029438477</v>
       </c>
       <c r="H6" t="n">
-        <v>47.72529150158683</v>
+        <v>23.36554673553195</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008734413735983455</v>
+        <v>0.01532567745164833</v>
       </c>
       <c r="H7" t="n">
-        <v>-24.66521244596484</v>
+        <v>32.18479108507631</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04924614512800576</v>
+        <v>-0.04516046766236024</v>
       </c>
       <c r="H8" t="n">
-        <v>1.953580747656754</v>
+        <v>10.08794425337454</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05007518299225271</v>
+        <v>-0.04310784682157408</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.733955853256638</v>
+        <v>8.116740775671595</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03588498480145327</v>
+        <v>-0.0453471556778657</v>
       </c>
       <c r="H10" t="n">
-        <v>13.19598615033674</v>
+        <v>-9.69253996576523</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03819400605170438</v>
+        <v>-0.04065695608513101</v>
       </c>
       <c r="H11" t="n">
-        <v>8.722042439431778</v>
+        <v>2.835960515462357</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05373946328455664</v>
+        <v>-0.05860368279762163</v>
       </c>
       <c r="H12" t="n">
-        <v>-9.37476581972466</v>
+        <v>-19.27480645318049</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05501578658550049</v>
+        <v>-0.04604485893183698</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.870695999957239</v>
+        <v>13.0665606855061</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0620616194827798</v>
+        <v>-0.06712626424412632</v>
       </c>
       <c r="H14" t="n">
-        <v>16.4228232531813</v>
+        <v>9.602364587961363</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08672585852312779</v>
+        <v>-0.07551457230994192</v>
       </c>
       <c r="H15" t="n">
-        <v>3.583261599973391</v>
+        <v>16.0473140562117</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3060570176792599</v>
+        <v>-0.2766941751914804</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.497998284757256</v>
+        <v>5.527448238867785</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3050867735062662</v>
+        <v>-0.2948275033808465</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.516224281334645</v>
+        <v>0.9311281720443823</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1558201524518054</v>
+        <v>-0.1414180850100336</v>
       </c>
       <c r="H18" t="n">
-        <v>-6.500700286685864</v>
+        <v>3.342893394812945</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1488706409207582</v>
+        <v>-0.1571990520824601</v>
       </c>
       <c r="H19" t="n">
-        <v>1.772947164613879</v>
+        <v>-3.722261817866174</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.16912877422723</v>
+        <v>0.1706469811345096</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.952249412200368</v>
+        <v>-3.090064020995723</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1717683600326904</v>
+        <v>0.1716899156696363</v>
       </c>
       <c r="H21" t="n">
-        <v>-4.41876389566155</v>
+        <v>-4.462414595852791</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1293468024366042</v>
+        <v>0.1327601965971135</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.314662712608808</v>
+        <v>1.289591491431289</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1367462771607181</v>
+        <v>0.1447024760017686</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03340197170343302</v>
+        <v>5.853565074924156</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0820287441109683</v>
+        <v>0.08803750574520638</v>
       </c>
       <c r="H24" t="n">
-        <v>-6.981576447295517</v>
+        <v>-0.1677998769181216</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09316187604240964</v>
+        <v>0.08771706771478845</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3609080482180095</v>
+        <v>-5.504644805825054</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05725096656052119</v>
+        <v>0.05751928980114047</v>
       </c>
       <c r="H26" t="n">
-        <v>-9.674848862790936</v>
+        <v>-9.251513874429804</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06312797827395986</v>
+        <v>0.06653828648150968</v>
       </c>
       <c r="H27" t="n">
-        <v>10.45762468133999</v>
+        <v>16.42478146881813</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1112490872165196</v>
+        <v>-0.1060859267915557</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.240838385486779</v>
+        <v>3.457831088760297</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1096474995712799</v>
+        <v>-0.1138268788960596</v>
       </c>
       <c r="H29" t="n">
-        <v>2.536049819410152</v>
+        <v>-1.17893519975403</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1173105798048131</v>
+        <v>0.113485123221768</v>
       </c>
       <c r="H30" t="n">
-        <v>2.810323268704633</v>
+        <v>-0.542285068988749</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1191630143959317</v>
+        <v>0.1198954438751607</v>
       </c>
       <c r="H31" t="n">
-        <v>1.578527024824583</v>
+        <v>2.202874336167697</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08902750154347319</v>
+        <v>0.09895765481307933</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.808489622827873</v>
+        <v>1.363037817937264</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09851384097069447</v>
+        <v>0.1039049177195134</v>
       </c>
       <c r="H33" t="n">
-        <v>1.415921818191061</v>
+        <v>6.965812195896777</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05722595875980189</v>
+        <v>0.06206775789392671</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.7832017096972029</v>
+        <v>7.611376877775437</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06144630721915744</v>
+        <v>0.06768875443563221</v>
       </c>
       <c r="H35" t="n">
-        <v>9.054354442466867</v>
+        <v>20.13339372314775</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01916626721458699</v>
+        <v>0.01506799528670404</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.206205721049797</v>
+        <v>-22.33101991722867</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01468766603003</v>
+        <v>0.02195243923723797</v>
       </c>
       <c r="H37" t="n">
-        <v>-13.09506626850755</v>
+        <v>29.88961440546071</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2105821227371983</v>
+        <v>-0.2132997365300935</v>
       </c>
       <c r="H38" t="n">
-        <v>-7.58640961286716</v>
+        <v>-8.974838539746576</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2128838243787015</v>
+        <v>-0.204783004797309</v>
       </c>
       <c r="H39" t="n">
-        <v>-4.774230922595334</v>
+        <v>-0.7872810265185014</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1529314841286284</v>
+        <v>0.1492330237155762</v>
       </c>
       <c r="H40" t="n">
-        <v>3.36183170680406</v>
+        <v>0.8621525533169481</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1609231887956945</v>
+        <v>0.1600456054263386</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8232408203706418</v>
+        <v>0.2734083192209448</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1080334965329325</v>
+        <v>0.1050416404347434</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1346284559009004</v>
+        <v>-2.638478111971419</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1185542325328997</v>
+        <v>0.1090530156153789</v>
       </c>
       <c r="H43" t="n">
-        <v>5.916385653971696</v>
+        <v>-2.572004289752227</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.05272710504480472</v>
+        <v>-0.04554837812125327</v>
       </c>
       <c r="H44" t="n">
-        <v>-27.93593233340144</v>
+        <v>-10.51762117918536</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04866082237568027</v>
+        <v>-0.04680982834165278</v>
       </c>
       <c r="H45" t="n">
-        <v>-16.88929471757442</v>
+        <v>-12.44297883960758</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04397947047917945</v>
+        <v>0.0448725556631299</v>
       </c>
       <c r="H46" t="n">
-        <v>2.215243655489902</v>
+        <v>4.290914842250087</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04870036956790488</v>
+        <v>0.04615812481987949</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.434861243104895</v>
+        <v>-6.580134442597176</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01500973390433957</v>
+        <v>0.017986923753722</v>
       </c>
       <c r="H48" t="n">
-        <v>21.01403850471976</v>
+        <v>45.01724664719474</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01910204140943557</v>
+        <v>0.01612669882099555</v>
       </c>
       <c r="H49" t="n">
-        <v>1.000621720572077</v>
+        <v>-14.73128068833478</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08621533174958189</v>
+        <v>0.0856598928442428</v>
       </c>
       <c r="H50" t="n">
-        <v>3.485981113161079</v>
+        <v>2.819276724266649</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08854342890720387</v>
+        <v>0.09020762131127255</v>
       </c>
       <c r="H51" t="n">
-        <v>1.080912985605026</v>
+        <v>2.980750044809817</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03174297888850176</v>
+        <v>0.03420550688369558</v>
       </c>
       <c r="H52" t="n">
-        <v>-11.63793164974519</v>
+        <v>-4.783059339555332</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03575262266832522</v>
+        <v>0.03361979418851638</v>
       </c>
       <c r="H53" t="n">
-        <v>15.78744277529893</v>
+        <v>8.880124175307614</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05937205637450688</v>
+        <v>0.06373854019791278</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.5950276657755672</v>
+        <v>6.715653994391315</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06377745173623665</v>
+        <v>0.06528132010239279</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.52811983353311</v>
+        <v>0.793841008532449</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07442108173950462</v>
+        <v>0.0759465621647205</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.208353280715882</v>
+        <v>-0.2038239278362169</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07857785406725688</v>
+        <v>0.07639686173218342</v>
       </c>
       <c r="H57" t="n">
-        <v>2.854422198529232</v>
+        <v>-0.0003860563691071939</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04620992166890883</v>
+        <v>0.0483097939563439</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.691154364802191</v>
+        <v>2.776198383341044</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04665960568437975</v>
+        <v>0.0462259559668123</v>
       </c>
       <c r="H59" t="n">
-        <v>5.502577390859328</v>
+        <v>4.522046968085101</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04019200454294105</v>
+        <v>0.04148646759242704</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.306716228071521</v>
+        <v>1.871896297678557</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04293485517894897</v>
+        <v>0.04425798740206684</v>
       </c>
       <c r="H61" t="n">
-        <v>5.577988947562076</v>
+        <v>8.831607450437421</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02901386102590246</v>
+        <v>-0.0322240859944231</v>
       </c>
       <c r="H62" t="n">
-        <v>-8.131529161104076</v>
+        <v>-20.09569120377026</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.02557978992904359</v>
+        <v>-0.0292541326874421</v>
       </c>
       <c r="H63" t="n">
-        <v>18.97464861190429</v>
+        <v>7.335971595971684</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08325920572578675</v>
+        <v>0.08503765066433179</v>
       </c>
       <c r="H64" t="n">
-        <v>-4.642569201504841</v>
+        <v>-2.605702062575143</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08082963972683947</v>
+        <v>0.08462138602863803</v>
       </c>
       <c r="H65" t="n">
-        <v>-6.273877397685379</v>
+        <v>-1.877152632360972</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01917243809157913</v>
+        <v>0.01981699222879741</v>
       </c>
       <c r="H66" t="n">
-        <v>-10.38375931995889</v>
+        <v>-7.370969897123829</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02149636699256895</v>
+        <v>0.02580183701495412</v>
       </c>
       <c r="H67" t="n">
-        <v>2.429978238459081</v>
+        <v>22.94550073822393</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.004527383480364675</v>
+        <v>0.003833627353557552</v>
       </c>
       <c r="H68" t="n">
-        <v>-2256.861579608762</v>
+        <v>1726.353695304704</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.004605941989009079</v>
+        <v>0.003806480981164589</v>
       </c>
       <c r="H69" t="n">
-        <v>-291.6112465151113</v>
+        <v>58.35296392734771</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07787254554432958</v>
+        <v>-0.07828013983840214</v>
       </c>
       <c r="H70" t="n">
-        <v>-14.50209952765366</v>
+        <v>-15.10141732445319</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07359064186539085</v>
+        <v>-0.07345979812911695</v>
       </c>
       <c r="H71" t="n">
-        <v>1.792599777120312</v>
+        <v>1.967211967599817</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04691215849978922</v>
+        <v>0.04715882227480765</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.3037729957687649</v>
+        <v>0.2204290127162798</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05246410303920655</v>
+        <v>0.04616127157082089</v>
       </c>
       <c r="H73" t="n">
-        <v>2.155014235074212</v>
+        <v>-10.11748831572798</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04923412446232314</v>
+        <v>0.048204041611452</v>
       </c>
       <c r="H74" t="n">
-        <v>14.04497601350289</v>
+        <v>11.65891197149034</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04893073856354928</v>
+        <v>0.05161809073063962</v>
       </c>
       <c r="H75" t="n">
-        <v>7.64822122934345</v>
+        <v>13.56042875158184</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02632569623783655</v>
+        <v>0.03167133808097321</v>
       </c>
       <c r="H76" t="n">
-        <v>-15.03894910065423</v>
+        <v>2.213067507804888</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02836224989346532</v>
+        <v>0.03107562070816615</v>
       </c>
       <c r="H77" t="n">
-        <v>-3.473177002919264</v>
+        <v>5.761388849221276</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03585983084301532</v>
+        <v>0.03880927587046754</v>
       </c>
       <c r="H78" t="n">
-        <v>4.032868026137831</v>
+        <v>12.58949582046695</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03348129581362447</v>
+        <v>0.03495840037839369</v>
       </c>
       <c r="H79" t="n">
-        <v>4.288860693994836</v>
+        <v>8.889804248963102</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03902926236664771</v>
+        <v>0.04194441490943131</v>
       </c>
       <c r="H80" t="n">
-        <v>32.45321866061863</v>
+        <v>42.34634278761553</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03514700445176665</v>
+        <v>0.03881918465636543</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8920989877430801</v>
+        <v>11.43336628725509</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04794841821696028</v>
+        <v>0.05445177342065471</v>
       </c>
       <c r="H82" t="n">
-        <v>-2.446694393800685</v>
+        <v>10.78468677045346</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05266564453218797</v>
+        <v>0.05533955603985038</v>
       </c>
       <c r="H83" t="n">
-        <v>2.093429658485691</v>
+        <v>7.276861834155793</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02796474419678526</v>
+        <v>0.034721320686775</v>
       </c>
       <c r="H84" t="n">
-        <v>-23.90148646199453</v>
+        <v>-5.515284754733413</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03296770602654955</v>
+        <v>0.03309393745396988</v>
       </c>
       <c r="H85" t="n">
-        <v>1.150316701445535</v>
+        <v>1.537615376426427</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03243032173638653</v>
+        <v>0.03064045092633723</v>
       </c>
       <c r="H86" t="n">
-        <v>20.81145966744839</v>
+        <v>14.14372115606634</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.025205278932094</v>
+        <v>0.03511000741899505</v>
       </c>
       <c r="H87" t="n">
-        <v>-25.04115131476558</v>
+        <v>4.41486247973306</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05076508379721534</v>
+        <v>0.05008880829266996</v>
       </c>
       <c r="H88" t="n">
-        <v>-8.821255707722198</v>
+        <v>-10.03590851015599</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0591315510196416</v>
+        <v>0.05184999956806163</v>
       </c>
       <c r="H89" t="n">
-        <v>9.92832569695126</v>
+        <v>-3.608419843217427</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02522631634254658</v>
+        <v>-0.02403962539979054</v>
       </c>
       <c r="H90" t="n">
-        <v>-5.377887892571125</v>
+        <v>-0.4207239756989175</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02784766107690911</v>
+        <v>-0.02560849336993309</v>
       </c>
       <c r="H91" t="n">
-        <v>-34.40479330327263</v>
+        <v>-23.59760658851394</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04334469994810766</v>
+        <v>0.04602995215149643</v>
       </c>
       <c r="H92" t="n">
-        <v>9.353335600888535</v>
+        <v>16.12789594440794</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04364334433669955</v>
+        <v>0.04367644962284951</v>
       </c>
       <c r="H93" t="n">
-        <v>-9.641890571276344</v>
+        <v>-9.57335019899118</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05487426504844421</v>
+        <v>0.05271205213154732</v>
       </c>
       <c r="H94" t="n">
-        <v>23.30365198343021</v>
+        <v>18.44511312584799</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0502796481463087</v>
+        <v>0.05392638112395171</v>
       </c>
       <c r="H95" t="n">
-        <v>12.30288536411018</v>
+        <v>20.4481021792726</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1448775064455182</v>
+        <v>-0.1364548815567287</v>
       </c>
       <c r="H96" t="n">
-        <v>1.419191152053174</v>
+        <v>7.150302865188289</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1506745278281608</v>
+        <v>-0.1502664108285144</v>
       </c>
       <c r="H97" t="n">
-        <v>0.09483066151280931</v>
+        <v>0.3654337856592283</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1409514878825632</v>
+        <v>0.1416722162704846</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.9547051615801059</v>
+        <v>-0.4482560509501476</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1490811909401392</v>
+        <v>0.1463297058080456</v>
       </c>
       <c r="H99" t="n">
-        <v>1.373783325700523</v>
+        <v>-0.4972002359799047</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02792338333557449</v>
+        <v>0.02158123361607803</v>
       </c>
       <c r="H100" t="n">
-        <v>20.09122606638998</v>
+        <v>-7.184714193349734</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02934828995758951</v>
+        <v>0.02877886573032626</v>
       </c>
       <c r="H101" t="n">
-        <v>7.437241046011979</v>
+        <v>5.35271182641087</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01957133468993601</v>
+        <v>-0.01481828492005134</v>
       </c>
       <c r="H102" t="n">
-        <v>-152.822240173207</v>
+        <v>-91.42240671703931</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.009989180556762969</v>
+        <v>-0.01056299038090933</v>
       </c>
       <c r="H103" t="n">
-        <v>-30.39622328139846</v>
+        <v>-37.88659083710267</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07875347882695695</v>
+        <v>0.07914606926876347</v>
       </c>
       <c r="H104" t="n">
-        <v>8.19485427016353</v>
+        <v>8.734211594713569</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07890037433634209</v>
+        <v>0.08102654805230192</v>
       </c>
       <c r="H105" t="n">
-        <v>5.497550100396554</v>
+        <v>8.340453191900663</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3815770493574534</v>
+        <v>-0.3574368431696775</v>
       </c>
       <c r="H106" t="n">
-        <v>-10.08921808789674</v>
+        <v>-3.124500403308495</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3469386373313227</v>
+        <v>-0.3535615911428087</v>
       </c>
       <c r="H107" t="n">
-        <v>7.791176054843161</v>
+        <v>6.030937452715333</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2273926608445929</v>
+        <v>0.2259961781784086</v>
       </c>
       <c r="H108" t="n">
-        <v>1.099449144888868</v>
+        <v>0.4785688237420676</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2288979055214443</v>
+        <v>0.2295488467226036</v>
       </c>
       <c r="H109" t="n">
-        <v>2.808354436171588</v>
+        <v>3.100721435220529</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.06122284070970196</v>
+        <v>0.05838482908373792</v>
       </c>
       <c r="H110" t="n">
-        <v>4.42664472493906</v>
+        <v>-0.4140981800667938</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06468210136191137</v>
+        <v>0.06949935014571135</v>
       </c>
       <c r="H111" t="n">
-        <v>12.60388951681432</v>
+        <v>20.99014998771242</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1376753604482669</v>
+        <v>0.1292240125360032</v>
       </c>
       <c r="H112" t="n">
-        <v>7.301604949604676</v>
+        <v>0.7147822093501452</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1442758912069214</v>
+        <v>0.1434918006089231</v>
       </c>
       <c r="H113" t="n">
-        <v>10.1878291219065</v>
+        <v>9.58899559465824</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>